--- a/aset/xlsx/XII IPS 2 Belajar ID.xlsx
+++ b/aset/xlsx/XII IPS 2 Belajar ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Evan/GraduOsis/aset/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5938FC3-2AAD-A34E-9489-99483B9D0429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903E177A-6B68-3B4A-93F7-E881E9B8979A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Nama Siswa</t>
+      <t>L/P</t>
     </r>
   </si>
   <si>
@@ -62,7 +62,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>L/P</t>
+      <t>belajarid_email</t>
     </r>
   </si>
   <si>
@@ -73,17 +73,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>belajarid_email</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>initial_password</t>
     </r>
   </si>
@@ -1024,6 +1013,9 @@
   </si>
   <si>
     <t>https://docs.google.com/forms/d/e/1FAIpQLSexvoynW3aaeDnY4JFmigiS2KHwSkF8uiOCWR4Aw1jbrwnA2g/formResponse?usp=pp_url&amp;entry.948519364=Tiara+Cinta+Nur+Alifa&amp;entry.1166059535=Hadir</t>
+  </si>
+  <si>
+    <t>Nama_Siswa</t>
   </si>
 </sst>
 </file>
@@ -1429,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="289" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1449,22 +1441,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1472,19 +1464,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1492,19 +1484,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1512,19 +1504,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1532,19 +1524,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1552,19 +1544,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1572,19 +1564,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1592,19 +1584,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1612,19 +1604,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="G9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1632,19 +1624,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1652,19 +1644,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1672,19 +1664,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1692,19 +1684,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1712,19 +1704,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1732,19 +1724,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1752,19 +1744,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="G16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1772,19 +1764,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1792,19 +1784,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="G18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1812,19 +1804,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1832,19 +1824,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="G20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1852,19 +1844,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1872,19 +1864,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1892,19 +1884,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1912,19 +1904,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="G24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1932,19 +1924,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1952,19 +1944,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1972,19 +1964,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="G27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -1992,19 +1984,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="G28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -2012,19 +2004,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="G29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -2032,19 +2024,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="G30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -2052,19 +2044,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="G31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -2072,19 +2064,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -2092,19 +2084,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -2112,19 +2104,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="G34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -2132,19 +2124,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="G35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -2152,19 +2144,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -2172,19 +2164,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="289" customHeight="1" x14ac:dyDescent="0.15">
@@ -2192,19 +2184,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="G38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
